--- a/loaded_influencer_data/alexgrinov_/alexgrinov__video.xlsx
+++ b/loaded_influencer_data/alexgrinov_/alexgrinov__video.xlsx
@@ -506,13 +506,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexgrinov_/video/7301360412061125921</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C2" t="n">
         <v>36</v>
@@ -528,23 +528,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>주문에서 10% 할인된 가격으로 "SEAMOSS10"을 코드🥰 당신의 건강은 모든 것을 의미하므로 몸조심하세요</t>
+          <t>Code “SEAMOSS10” for 10% off your order🥰 Your health means everything so take care of yourself</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7.8</v>
+        <v>7.784431137724551</v>
       </c>
       <c r="I2" t="n">
-        <v>7.199999999999999</v>
+        <v>7.18562874251497</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6</v>
+        <v>0.5988023952095809</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6</v>
+        <v>0.5988023952095809</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -556,252 +556,252 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexgrinov_/video/7301055245189254432</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>나의 새로운 집착 😍#elemis #ugccommunity #ugccreators</t>
+          <t>Code “SEAMOSS10” for 10% off your order🥰 Your health means everything so take care of yourself</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9.591474245115453</v>
+        <v>6.914893617021277</v>
       </c>
       <c r="I3" t="n">
-        <v>8.703374777975133</v>
+        <v>6.382978723404255</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8880994671403196</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L3" t="n">
-        <v>1.243339253996448</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2023-11-14</t>
+          <t>2023-11-15</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexgrinov_/video/7298410161306144032</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5092</v>
+        <v>5100</v>
       </c>
       <c r="C4" t="n">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>메이저 킹 카일리 바이브 🥹#ugccreator #ugccreators #ugccommunity #tryon #bershkaoutfit #bershka</t>
+          <t>Code “SEAMOSS10” for 10% off your order🥰 Your health means everything so take care of yourself</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2.297721916732129</v>
+        <v>0.7647058823529412</v>
       </c>
       <c r="I4" t="n">
-        <v>2.081696779261587</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.216025137470542</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2356637863315004</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2023-11-7</t>
+          <t>2023-11-15</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexgrinov_/video/7298375148321787168</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>약간 주름이 있지만 이런 품질의 쉐이프웨어는 없었습니다😍 미스 K는 무슨 일인지 알고 있습니다. ✨#ugc #skimsdublin</t>
+          <t>Code “SEAMOSS10” for 10% off your order🥰 Your health means everything so take care of yourself</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8.210180623973727</v>
+        <v>6.393442622950819</v>
       </c>
       <c r="I5" t="n">
-        <v>8.045977011494253</v>
+        <v>5.901639344262295</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1642036124794745</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9852216748768473</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2023-11-7</t>
+          <t>2023-11-15</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexgrinov_/video/7291392944534293793</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C6" t="n">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>오늘 2일차, 너무 많은 연구를 마쳤습니다:) 이제 포트폴리오를 구축하고 점점 더 많은 콘텐츠를 만들기 시작합니다. 🫶🏼</t>
+          <t>My new obsession 😍 #elemis #ugccommunity #ugccreators</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>13.3535660091047</v>
+        <v>8.181818181818182</v>
       </c>
       <c r="I6" t="n">
-        <v>11.98786039453718</v>
+        <v>7.424242424242425</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.365705614567527</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L6" t="n">
-        <v>1.213960546282246</v>
+        <v>1.060606060606061</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2023-10-19</t>
+          <t>2023-11-14</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexgrinov_/video/7290922982032100640</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C7" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>내가 시도한 예제 비디오로 UGC 여행을 시작합니다. 나는 할 일이 많다 :) 서로를 지지하자 🩵#ugccreator</t>
+          <t>My new obsession 😍 #elemis #ugccommunity #ugccreators</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4.676616915422885</v>
+        <v>5.36779324055666</v>
       </c>
       <c r="I7" t="n">
-        <v>4.577114427860696</v>
+        <v>4.870775347912525</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09950248756218905</v>
+        <v>0.4970178926441352</v>
       </c>
       <c r="L7" t="n">
-        <v>1.09452736318408</v>
+        <v>0.6958250497017893</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2023-10-17</t>
+          <t>2023-11-14</t>
         </is>
       </c>
     </row>
